--- a/PRODUTOS/Saudaveis/Saudaveis - Sem lactose.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Sem lactose.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Achocolatado Nescau 180ml Zero Lactose</t>
+          <t>Biscoito Wafer Zero Lact Lowçucar 115g Choc</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fdc3450-8b99-4f26-800a-9196e4d5a15c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3367833e-cd95-450a-9165-14bb64f552d7.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896292002746</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Biscoito Maisena Lowçucar 115g Zero Lactose</t>
+          <t>Biscoito Wafer Zero Lact Lowçucar 115g Ch/av</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8b7bf7c-0ad8-4336-b5f7-b087a0996895.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d021017-ad1b-42a0-aabe-3cbc153b7051.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896292002760</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tubers Free Nuts Natural Life 50g Choc</t>
+          <t>Tubes Free Nuts Natural Life 50g C Avela</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfa4fdc4-097a-4b54-bf79-21e9495b5667.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c4f6eb6-be7e-49bc-8a7e-14abb3788082.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896256065893</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Biscoito Zero Açuc/lacto Lowçucar 115g Leite</t>
+          <t>Tubes Free Nuts Natural Life 50g Amendoi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f86b6c64-96d4-43f2-89ba-9169bffab44c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bf17498-6836-4367-ac96-20197720dccb.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896256065893</t>
         </is>
       </c>
     </row>
@@ -569,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tubes Free Nuts Natural Life 50g Amendoi</t>
+          <t>Tubers Free Nuts Natural Life 50g Choc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bf17498-6836-4367-ac96-20197720dccb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bfa4fdc4-097a-4b54-bf79-21e9495b5667.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896256065879</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Biscoito Vitalin Caseirinho 100g Amanteigado Baunilha</t>
+          <t>Biscoito Zero Açuc/lacto Lowçucar 115g Leite</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95a2d910-4a54-4c41-b79b-e20519db9549.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f86b6c64-96d4-43f2-89ba-9169bffab44c.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896292002791</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Biscoito Vitalin Caseirinho 100g Coco</t>
+          <t>Biscoito Maisena Lowçucar 115g Zero Lactose</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60dca7c9-72df-4f97-bb9d-63928d70682b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8b7bf7c-0ad8-4336-b5f7-b087a0996895.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896292002784</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Zero Lact Lowçucar 115g Choc</t>
+          <t>Achocolatado Nescau 180ml Zero Lactose</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3367833e-cd95-450a-9165-14bb64f552d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fdc3450-8b99-4f26-800a-9196e4d5a15c.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891000381113</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Biscoito Wafer Zero Lact Lowçucar 115g Ch/av</t>
+          <t>Biscoito Vitalin Caseirinho 100g Amanteigado Baunilha</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d021017-ad1b-42a0-aabe-3cbc153b7051.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95a2d910-4a54-4c41-b79b-e20519db9549.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898568901746</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tubes Free Nuts Natural Life 50g C Avela</t>
+          <t>Biscoito Vitalin Caseirinho 100g Coco</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c4f6eb6-be7e-49bc-8a7e-14abb3788082.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60dca7c9-72df-4f97-bb9d-63928d70682b.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898568901753</t>
         </is>
       </c>
     </row>
